--- a/data/excel_files/월_싱가포르항공유.xlsx
+++ b/data/excel_files/월_싱가포르항공유.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE6A635A-9E2A-874A-89F2-92B39F33052E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC636209-2C04-574B-8B08-B175D6148385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2760" windowWidth="27900" windowHeight="16940" xr2:uid="{CA88FF73-629D-1A47-9DD7-BEB3FED565E7}"/>
+    <workbookView xWindow="9480" yWindow="2940" windowWidth="27900" windowHeight="16940" xr2:uid="{CA88FF73-629D-1A47-9DD7-BEB3FED565E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>singapore dollar per barrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jul,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oct,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,13 +142,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +174,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,13 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849429-5197-C94E-A621-C1EA0654F7B9}">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B210"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2136,6 +2187,59 @@
       </c>
       <c r="B210" s="2">
         <v>43.08</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" s="5">
+        <v>55.01</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" s="6">
+        <v>58.38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="5">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="6">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" s="5">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="6">
+        <v>57.05</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
